--- a/popul.xlsx
+++ b/popul.xlsx
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Годы</t>
   </si>
   <si>
     <t>Все</t>
-  </si>
-  <si>
-    <t>население,</t>
-  </si>
-  <si>
-    <t>млн.человек</t>
   </si>
   <si>
     <t>городское</t>
@@ -150,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -341,11 +335,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -393,28 +400,34 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,7 +743,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,35 +757,31 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="24" t="s">
-        <v>5</v>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
-      <c r="B2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -1627,7 +1636,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57" s="4">
         <v>146.4</v>
@@ -1643,7 +1652,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58" s="4">
         <v>146.1</v>
@@ -1659,7 +1668,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" s="4">
         <v>146.1</v>
@@ -1677,9 +1686,11 @@
       <c r="A60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/popul.xlsx
+++ b/popul.xlsx
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -177,17 +177,6 @@
       <top style="thin">
         <color indexed="23"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -272,11 +261,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -285,27 +274,11 @@
         <color indexed="23"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,33 +291,7 @@
         <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -352,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,17 +308,17 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,11 +327,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -392,42 +336,21 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,961 +660,939 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="16" customWidth="1"/>
     <col min="2" max="4" width="9.21875" style="6"/>
     <col min="5" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1917</v>
+      </c>
+      <c r="B2" s="2">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="11">
+        <v>1926</v>
+      </c>
+      <c r="B3" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>76.3</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>1917</v>
+      <c r="A4" s="11">
+        <v>1939</v>
       </c>
       <c r="B4" s="2">
-        <v>91</v>
+        <v>108.4</v>
       </c>
       <c r="C4" s="3">
-        <v>15.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D4" s="7">
-        <v>75.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>1926</v>
+      <c r="A5" s="11">
+        <v>1959</v>
       </c>
       <c r="B5" s="2">
-        <v>92.7</v>
+        <v>117.2</v>
       </c>
       <c r="C5" s="3">
-        <v>16.399999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="D5" s="7">
-        <v>76.3</v>
+        <v>56.1</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>1939</v>
+      <c r="A6" s="11">
+        <v>1970</v>
       </c>
       <c r="B6" s="2">
-        <v>108.4</v>
+        <v>129.9</v>
       </c>
       <c r="C6" s="3">
-        <v>36.299999999999997</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D6" s="7">
-        <v>72.099999999999994</v>
+        <v>49.3</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>1959</v>
+      <c r="A7" s="11">
+        <v>1971</v>
       </c>
       <c r="B7" s="2">
-        <v>117.2</v>
+        <v>130.6</v>
       </c>
       <c r="C7" s="3">
-        <v>61.1</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>56.1</v>
+        <v>48.6</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>1970</v>
+      <c r="A8" s="11">
+        <v>1972</v>
       </c>
       <c r="B8" s="2">
-        <v>129.9</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>80.599999999999994</v>
+        <v>83.6</v>
       </c>
       <c r="D8" s="7">
-        <v>49.3</v>
+        <v>47.7</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>1971</v>
+      <c r="A9" s="11">
+        <v>1973</v>
       </c>
       <c r="B9" s="2">
-        <v>130.6</v>
+        <v>132.1</v>
       </c>
       <c r="C9" s="3">
-        <v>82</v>
+        <v>85.4</v>
       </c>
       <c r="D9" s="7">
-        <v>48.6</v>
+        <v>46.7</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>1972</v>
+      <c r="A10" s="11">
+        <v>1974</v>
       </c>
       <c r="B10" s="2">
-        <v>131.30000000000001</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>83.6</v>
+        <v>87.1</v>
       </c>
       <c r="D10" s="7">
-        <v>47.7</v>
+        <v>45.7</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>1973</v>
+      <c r="A11" s="11">
+        <v>1975</v>
       </c>
       <c r="B11" s="2">
-        <v>132.1</v>
+        <v>133.6</v>
       </c>
       <c r="C11" s="3">
-        <v>85.4</v>
+        <v>88.9</v>
       </c>
       <c r="D11" s="7">
-        <v>46.7</v>
+        <v>44.7</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>1974</v>
+      <c r="A12" s="11">
+        <v>1976</v>
       </c>
       <c r="B12" s="2">
-        <v>132.80000000000001</v>
+        <v>134.5</v>
       </c>
       <c r="C12" s="3">
-        <v>87.1</v>
+        <v>90.6</v>
       </c>
       <c r="D12" s="7">
-        <v>45.7</v>
+        <v>43.9</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>1975</v>
+      <c r="A13" s="11">
+        <v>1977</v>
       </c>
       <c r="B13" s="2">
-        <v>133.6</v>
+        <v>135.5</v>
       </c>
       <c r="C13" s="3">
-        <v>88.9</v>
+        <v>92.1</v>
       </c>
       <c r="D13" s="7">
-        <v>44.7</v>
+        <v>43.4</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>1976</v>
+      <c r="A14" s="11">
+        <v>1978</v>
       </c>
       <c r="B14" s="2">
-        <v>134.5</v>
+        <v>136.5</v>
       </c>
       <c r="C14" s="3">
-        <v>90.6</v>
+        <v>93.5</v>
       </c>
       <c r="D14" s="7">
-        <v>43.9</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>1977</v>
+      <c r="A15" s="11">
+        <v>1979</v>
       </c>
       <c r="B15" s="2">
-        <v>135.5</v>
+        <v>137.4</v>
       </c>
       <c r="C15" s="3">
-        <v>92.1</v>
+        <v>94.9</v>
       </c>
       <c r="D15" s="7">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>1978</v>
+      <c r="A16" s="11">
+        <v>1980</v>
       </c>
       <c r="B16" s="2">
-        <v>136.5</v>
+        <v>138.1</v>
       </c>
       <c r="C16" s="3">
-        <v>93.5</v>
+        <v>96.1</v>
       </c>
       <c r="D16" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>1979</v>
+      <c r="A17" s="11">
+        <v>1981</v>
       </c>
       <c r="B17" s="2">
-        <v>137.4</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="C17" s="3">
-        <v>94.9</v>
+        <v>97.3</v>
       </c>
       <c r="D17" s="7">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>1980</v>
+      <c r="A18" s="11">
+        <v>1982</v>
       </c>
       <c r="B18" s="2">
-        <v>138.1</v>
+        <v>139.6</v>
       </c>
       <c r="C18" s="3">
-        <v>96.1</v>
+        <v>98.5</v>
       </c>
       <c r="D18" s="7">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>1981</v>
+      <c r="A19" s="11">
+        <v>1983</v>
       </c>
       <c r="B19" s="2">
-        <v>138.80000000000001</v>
+        <v>140.5</v>
       </c>
       <c r="C19" s="3">
-        <v>97.3</v>
+        <v>99.9</v>
       </c>
       <c r="D19" s="7">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>1982</v>
+      <c r="A20" s="11">
+        <v>1984</v>
       </c>
       <c r="B20" s="2">
-        <v>139.6</v>
+        <v>141.6</v>
       </c>
       <c r="C20" s="3">
-        <v>98.5</v>
+        <v>101.2</v>
       </c>
       <c r="D20" s="7">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>1983</v>
+      <c r="A21" s="11">
+        <v>1985</v>
       </c>
       <c r="B21" s="2">
-        <v>140.5</v>
+        <v>142.5</v>
       </c>
       <c r="C21" s="3">
-        <v>99.9</v>
+        <v>102.4</v>
       </c>
       <c r="D21" s="7">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>1984</v>
+      <c r="A22" s="11">
+        <v>1986</v>
       </c>
       <c r="B22" s="2">
-        <v>141.6</v>
+        <v>143.6</v>
       </c>
       <c r="C22" s="3">
-        <v>101.2</v>
+        <v>103.7</v>
       </c>
       <c r="D22" s="7">
-        <v>40.4</v>
+        <v>39.9</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>1985</v>
+      <c r="A23" s="11">
+        <v>1987</v>
       </c>
       <c r="B23" s="2">
-        <v>142.5</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="C23" s="3">
-        <v>102.4</v>
+        <v>105.2</v>
       </c>
       <c r="D23" s="7">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>1986</v>
+      <c r="A24" s="11">
+        <v>1988</v>
       </c>
       <c r="B24" s="2">
-        <v>143.6</v>
+        <v>146</v>
       </c>
       <c r="C24" s="3">
-        <v>103.7</v>
+        <v>106.7</v>
       </c>
       <c r="D24" s="7">
-        <v>39.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>1987</v>
+      <c r="A25" s="11">
+        <v>1989</v>
       </c>
       <c r="B25" s="2">
-        <v>144.80000000000001</v>
+        <v>147</v>
       </c>
       <c r="C25" s="3">
-        <v>105.2</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>1988</v>
+      <c r="A26" s="11">
+        <v>1990</v>
       </c>
       <c r="B26" s="2">
-        <v>146</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>106.7</v>
+        <v>108.8</v>
       </c>
       <c r="D26" s="7">
-        <v>39.299999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>1989</v>
+      <c r="A27" s="11">
+        <v>1991</v>
       </c>
       <c r="B27" s="2">
-        <v>147</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>108</v>
+        <v>109.4</v>
       </c>
       <c r="D27" s="7">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
-        <v>1990</v>
+      <c r="A28" s="11">
+        <v>1996</v>
       </c>
       <c r="B28" s="2">
-        <v>147.69999999999999</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>108.8</v>
+        <v>108.3</v>
       </c>
       <c r="D28" s="7">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>1991</v>
+      <c r="A29" s="11">
+        <v>1997</v>
       </c>
       <c r="B29" s="2">
-        <v>148.30000000000001</v>
+        <v>148</v>
       </c>
       <c r="C29" s="3">
-        <v>109.4</v>
+        <v>108.2</v>
       </c>
       <c r="D29" s="7">
-        <v>38.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>1996</v>
+      <c r="A30" s="11">
+        <v>1998</v>
       </c>
       <c r="B30" s="2">
-        <v>148.30000000000001</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="D30" s="7">
-        <v>40</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>1997</v>
+      <c r="A31" s="11">
+        <v>1999</v>
       </c>
       <c r="B31" s="2">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="C31" s="3">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="D31" s="7">
-        <v>39.799999999999997</v>
+        <v>39.5</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>1998</v>
+      <c r="A32" s="11">
+        <v>2000</v>
       </c>
       <c r="B32" s="2">
-        <v>147.80000000000001</v>
+        <v>146.9</v>
       </c>
       <c r="C32" s="3">
-        <v>108.1</v>
+        <v>107.4</v>
       </c>
       <c r="D32" s="7">
-        <v>39.700000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>1999</v>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>2001</v>
       </c>
       <c r="B33" s="2">
-        <v>147.5</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>108</v>
+        <v>107.1</v>
       </c>
       <c r="D33" s="7">
-        <v>39.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>2000</v>
+      <c r="A34" s="11">
+        <v>2002</v>
       </c>
       <c r="B34" s="2">
-        <v>146.9</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>107.4</v>
+        <v>106.4</v>
       </c>
       <c r="D34" s="7">
-        <v>39.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
-        <v>2001</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>2003</v>
       </c>
       <c r="B35" s="2">
-        <v>146.30000000000001</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3">
-        <v>107.1</v>
+        <v>106.3</v>
       </c>
       <c r="D35" s="7">
-        <v>39.200000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
-        <v>2002</v>
+      <c r="A36" s="11">
+        <v>2004</v>
       </c>
       <c r="B36" s="2">
-        <v>145.19999999999999</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>106.4</v>
+        <v>106</v>
       </c>
       <c r="D36" s="7">
-        <v>38.799999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
-        <v>2003</v>
+      <c r="A37" s="11">
+        <v>2005</v>
       </c>
       <c r="B37" s="2">
-        <v>145</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>106.3</v>
+        <v>105.2</v>
       </c>
       <c r="D37" s="7">
-        <v>38.700000000000003</v>
+        <v>38.6</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
-        <v>2004</v>
+      <c r="A38" s="11">
+        <v>2006</v>
       </c>
       <c r="B38" s="2">
-        <v>144.30000000000001</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="C38" s="3">
-        <v>106</v>
+        <v>104.8</v>
       </c>
       <c r="D38" s="7">
-        <v>38.299999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
-        <v>2005</v>
+      <c r="A39" s="11">
+        <v>2007</v>
       </c>
       <c r="B39" s="2">
-        <v>143.80000000000001</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="C39" s="3">
-        <v>105.2</v>
+        <v>104.7</v>
       </c>
       <c r="D39" s="7">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
-        <v>2006</v>
+      <c r="A40" s="11">
+        <v>2008</v>
       </c>
       <c r="B40" s="2">
-        <v>143.19999999999999</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D40" s="7">
-        <v>38.4</v>
+        <v>37.9</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>2007</v>
+      <c r="A41" s="11">
+        <v>2009</v>
       </c>
       <c r="B41" s="2">
-        <v>142.80000000000001</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="D41" s="7">
-        <v>38.1</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
-        <v>2008</v>
+      <c r="A42" s="11">
+        <v>2010</v>
       </c>
       <c r="B42" s="2">
-        <v>142.80000000000001</v>
+        <v>142.9</v>
       </c>
       <c r="C42" s="3">
-        <v>104.9</v>
+        <v>105.3</v>
       </c>
       <c r="D42" s="7">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
-        <v>2009</v>
+      <c r="A43" s="11">
+        <v>2011</v>
       </c>
       <c r="B43" s="2">
-        <v>142.69999999999999</v>
+        <v>142.9</v>
       </c>
       <c r="C43" s="3">
-        <v>104.9</v>
+        <v>105.4</v>
       </c>
       <c r="D43" s="7">
-        <v>37.799999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
-        <v>2010</v>
+      <c r="A44" s="11">
+        <v>2012</v>
       </c>
       <c r="B44" s="2">
-        <v>142.9</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="C44" s="3">
-        <v>105.3</v>
+        <v>105.9</v>
       </c>
       <c r="D44" s="7">
-        <v>37.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
-        <v>2011</v>
+      <c r="A45" s="11">
+        <v>2013</v>
       </c>
       <c r="B45" s="2">
-        <v>142.9</v>
+        <v>143.6</v>
       </c>
       <c r="C45" s="3">
-        <v>105.4</v>
+        <v>106.4</v>
       </c>
       <c r="D45" s="7">
-        <v>37.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
-        <v>2012</v>
+      <c r="A46" s="11">
+        <v>2014</v>
       </c>
       <c r="B46" s="2">
-        <v>143.19999999999999</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3">
-        <v>105.9</v>
+        <v>106.9</v>
       </c>
       <c r="D46" s="7">
-        <v>37.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
-        <v>2013</v>
+      <c r="A47" s="11">
+        <v>2015</v>
       </c>
       <c r="B47" s="2">
-        <v>143.6</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>106.4</v>
+        <v>108.8</v>
       </c>
       <c r="D47" s="7">
-        <v>37.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
-        <v>2014</v>
+      <c r="A48" s="11">
+        <v>2016</v>
       </c>
       <c r="B48" s="2">
-        <v>144</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>106.9</v>
+        <v>109.3</v>
       </c>
       <c r="D48" s="7">
-        <v>37.1</v>
+        <v>37.9</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <v>2015</v>
+      <c r="A49" s="12">
+        <v>2017</v>
       </c>
       <c r="B49" s="2">
-        <v>146.69999999999999</v>
+        <v>147.6</v>
       </c>
       <c r="C49" s="3">
-        <v>108.8</v>
+        <v>109.8</v>
       </c>
       <c r="D49" s="7">
-        <v>37.9</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B50" s="2">
-        <v>147.19999999999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>109.3</v>
-      </c>
-      <c r="D50" s="7">
-        <v>37.9</v>
+        <v>2018</v>
+      </c>
+      <c r="B50" s="4">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C50" s="5">
+        <v>110.1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>37.700000000000003</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>2017</v>
-      </c>
-      <c r="B51" s="2">
-        <v>147.6</v>
-      </c>
-      <c r="C51" s="3">
-        <v>109.8</v>
-      </c>
-      <c r="D51" s="7">
-        <v>37.799999999999997</v>
+        <v>2019</v>
+      </c>
+      <c r="B51" s="4">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C51" s="5">
+        <v>110.3</v>
+      </c>
+      <c r="D51" s="8">
+        <v>37.5</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
-        <v>2018</v>
+      <c r="A52" s="14">
+        <v>2020</v>
       </c>
       <c r="B52" s="4">
-        <v>147.80000000000001</v>
+        <v>147.9</v>
       </c>
       <c r="C52" s="5">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="D52" s="8">
-        <v>37.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>2019</v>
+      <c r="A53" s="14">
+        <v>2021</v>
       </c>
       <c r="B53" s="4">
-        <v>147.80000000000001</v>
+        <v>147.4</v>
       </c>
       <c r="C53" s="5">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="D53" s="8">
-        <v>37.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>2020</v>
+      <c r="A54" s="14">
+        <v>2022</v>
       </c>
       <c r="B54" s="4">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="C54" s="5">
-        <v>110.5</v>
+        <v>110</v>
       </c>
       <c r="D54" s="8">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>2021</v>
+      <c r="A55" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B55" s="4">
-        <v>147.4</v>
+        <v>146.4</v>
       </c>
       <c r="C55" s="5">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="D55" s="8">
-        <v>37.200000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>2022</v>
+      <c r="A56" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B56" s="4">
-        <v>147</v>
+        <v>146.1</v>
       </c>
       <c r="C56" s="5">
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="D56" s="8">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>4</v>
+      <c r="A57" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B57" s="4">
-        <v>146.4</v>
+        <v>146.1</v>
       </c>
       <c r="C57" s="5">
-        <v>109.6</v>
+        <v>109.8</v>
       </c>
       <c r="D57" s="8">
-        <v>36.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>146.1</v>
-      </c>
-      <c r="C58" s="5">
-        <v>109.5</v>
-      </c>
-      <c r="D58" s="8">
-        <v>36.6</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4">
-        <v>146.1</v>
-      </c>
-      <c r="C59" s="5">
-        <v>109.8</v>
-      </c>
-      <c r="D59" s="8">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+    <row r="58" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
